--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14970" windowHeight="3600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreads" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreads" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mangercreads" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -70,6 +71,24 @@
   </si>
   <si>
     <t>try24</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>virat123@gmai.com</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
   </si>
 </sst>
 </file>
@@ -454,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -526,12 +545,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>